--- a/natmiOut/OldD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Podxl2-Sell.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,12 +95,6 @@
   </si>
   <si>
     <t>Sell</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.23741833929388</v>
+        <v>0.31142</v>
       </c>
       <c r="H2">
-        <v>1.23741833929388</v>
+        <v>0.93426</v>
       </c>
       <c r="I2">
-        <v>0.4739249582668586</v>
+        <v>0.1016343233467506</v>
       </c>
       <c r="J2">
-        <v>0.4739249582668586</v>
+        <v>0.1197416913869573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0653411950566061</v>
+        <v>0.146719</v>
       </c>
       <c r="N2">
-        <v>0.0653411950566061</v>
+        <v>0.440157</v>
       </c>
       <c r="O2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="P2">
-        <v>0.0128488690045244</v>
+        <v>0.002213357657235064</v>
       </c>
       <c r="Q2">
-        <v>0.08085439307442301</v>
+        <v>0.04569123098</v>
       </c>
       <c r="R2">
-        <v>0.08085439307442301</v>
+        <v>0.41122107882</v>
       </c>
       <c r="S2">
-        <v>0.006089399706745558</v>
+        <v>0.0002249531078174349</v>
       </c>
       <c r="T2">
-        <v>0.006089399706745558</v>
+        <v>0.0002650311895215998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.23741833929388</v>
+        <v>0.31142</v>
       </c>
       <c r="H3">
-        <v>1.23741833929388</v>
+        <v>0.93426</v>
       </c>
       <c r="I3">
-        <v>0.4739249582668586</v>
+        <v>0.1016343233467506</v>
       </c>
       <c r="J3">
-        <v>0.4739249582668586</v>
+        <v>0.1197416913869573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.02002429770372</v>
+        <v>28.93198366666667</v>
       </c>
       <c r="N3">
-        <v>5.02002429770372</v>
+        <v>86.795951</v>
       </c>
       <c r="O3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="P3">
-        <v>0.9871511309954755</v>
+        <v>0.4364589970461662</v>
       </c>
       <c r="Q3">
-        <v>6.211870129679463</v>
+        <v>9.009998353473334</v>
       </c>
       <c r="R3">
-        <v>6.211870129679463</v>
+        <v>81.08998518126</v>
       </c>
       <c r="S3">
-        <v>0.467835558560113</v>
+        <v>0.04435921483338853</v>
       </c>
       <c r="T3">
-        <v>0.467835558560113</v>
+        <v>0.05226233852736294</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.37358223729342</v>
+        <v>0.31142</v>
       </c>
       <c r="H4">
-        <v>1.37358223729342</v>
+        <v>0.93426</v>
       </c>
       <c r="I4">
-        <v>0.5260750417331413</v>
+        <v>0.1016343233467506</v>
       </c>
       <c r="J4">
-        <v>0.5260750417331413</v>
+        <v>0.1197416913869573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0653411950566061</v>
+        <v>37.20927366666667</v>
       </c>
       <c r="N4">
-        <v>0.0653411950566061</v>
+        <v>111.627821</v>
       </c>
       <c r="O4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965987</v>
       </c>
       <c r="P4">
-        <v>0.0128488690045244</v>
+        <v>0.5613276452965988</v>
       </c>
       <c r="Q4">
-        <v>0.08975150489327877</v>
+        <v>11.58771200527333</v>
       </c>
       <c r="R4">
-        <v>0.08975150489327877</v>
+        <v>104.28940804746</v>
       </c>
       <c r="S4">
-        <v>0.00675946929777884</v>
+        <v>0.05705015540554465</v>
       </c>
       <c r="T4">
-        <v>0.00675946929777884</v>
+        <v>0.06721432167007277</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.259223333333333</v>
+      </c>
+      <c r="H5">
+        <v>3.77767</v>
+      </c>
+      <c r="I5">
+        <v>0.4109572648698643</v>
+      </c>
+      <c r="J5">
+        <v>0.4841742077170884</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.146719</v>
+      </c>
+      <c r="N5">
+        <v>0.440157</v>
+      </c>
+      <c r="O5">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P5">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q5">
+        <v>0.1847519882433334</v>
+      </c>
+      <c r="R5">
+        <v>1.66276789419</v>
+      </c>
+      <c r="S5">
+        <v>0.0009095954089960923</v>
+      </c>
+      <c r="T5">
+        <v>0.001071650690086338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.259223333333333</v>
+      </c>
+      <c r="H6">
+        <v>3.77767</v>
+      </c>
+      <c r="I6">
+        <v>0.4109572648698643</v>
+      </c>
+      <c r="J6">
+        <v>0.4841742077170884</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N6">
+        <v>86.795951</v>
+      </c>
+      <c r="O6">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P6">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q6">
+        <v>36.43182891268556</v>
+      </c>
+      <c r="R6">
+        <v>327.88646021417</v>
+      </c>
+      <c r="S6">
+        <v>0.1793659956539366</v>
+      </c>
+      <c r="T6">
+        <v>0.2113221890958225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.259223333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.77767</v>
+      </c>
+      <c r="I7">
+        <v>0.4109572648698643</v>
+      </c>
+      <c r="J7">
+        <v>0.4841742077170884</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N7">
+        <v>111.627821</v>
+      </c>
+      <c r="O7">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P7">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q7">
+        <v>46.85478561745222</v>
+      </c>
+      <c r="R7">
+        <v>421.69307055707</v>
+      </c>
+      <c r="S7">
+        <v>0.2306816738069316</v>
+      </c>
+      <c r="T7">
+        <v>0.2717803679311795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1.37358223729342</v>
-      </c>
-      <c r="H5">
-        <v>1.37358223729342</v>
-      </c>
-      <c r="I5">
-        <v>0.5260750417331413</v>
-      </c>
-      <c r="J5">
-        <v>0.5260750417331413</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="N5">
-        <v>5.02002429770372</v>
-      </c>
-      <c r="O5">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="P5">
-        <v>0.9871511309954755</v>
-      </c>
-      <c r="Q5">
-        <v>6.895416206107205</v>
-      </c>
-      <c r="R5">
-        <v>6.895416206107205</v>
-      </c>
-      <c r="S5">
-        <v>0.5193155724353624</v>
-      </c>
-      <c r="T5">
-        <v>0.5193155724353624</v>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.07827166666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.234815</v>
+      </c>
+      <c r="I8">
+        <v>0.02554456322294356</v>
+      </c>
+      <c r="J8">
+        <v>0.03009563211849847</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.146719</v>
+      </c>
+      <c r="N8">
+        <v>0.440157</v>
+      </c>
+      <c r="O8">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P8">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q8">
+        <v>0.01148394066166667</v>
+      </c>
+      <c r="R8">
+        <v>0.103355465955</v>
+      </c>
+      <c r="S8">
+        <v>5.653925461022731E-05</v>
+      </c>
+      <c r="T8">
+        <v>6.661239779880811E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.07827166666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.234815</v>
+      </c>
+      <c r="I9">
+        <v>0.02554456322294356</v>
+      </c>
+      <c r="J9">
+        <v>0.03009563211849847</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N9">
+        <v>86.795951</v>
+      </c>
+      <c r="O9">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P9">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q9">
+        <v>2.264554581562778</v>
+      </c>
+      <c r="R9">
+        <v>20.380991234065</v>
+      </c>
+      <c r="S9">
+        <v>0.01114915444426833</v>
+      </c>
+      <c r="T9">
+        <v>0.01313550940991023</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.07827166666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.234815</v>
+      </c>
+      <c r="I10">
+        <v>0.02554456322294356</v>
+      </c>
+      <c r="J10">
+        <v>0.03009563211849847</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N10">
+        <v>111.627821</v>
+      </c>
+      <c r="O10">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P10">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q10">
+        <v>2.912431865346111</v>
+      </c>
+      <c r="R10">
+        <v>26.211886788115</v>
+      </c>
+      <c r="S10">
+        <v>0.014338869524065</v>
+      </c>
+      <c r="T10">
+        <v>0.01689351031078944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02513533333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.075406</v>
+      </c>
+      <c r="I11">
+        <v>0.008203110254409989</v>
+      </c>
+      <c r="J11">
+        <v>0.009664592277015929</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.146719</v>
+      </c>
+      <c r="N11">
+        <v>0.440157</v>
+      </c>
+      <c r="O11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P11">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q11">
+        <v>0.003687830971333334</v>
+      </c>
+      <c r="R11">
+        <v>0.033190478742</v>
+      </c>
+      <c r="S11">
+        <v>1.815641689474182E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.139119932038807E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02513533333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.075406</v>
+      </c>
+      <c r="I12">
+        <v>0.008203110254409989</v>
+      </c>
+      <c r="J12">
+        <v>0.009664592277015929</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N12">
+        <v>86.795951</v>
+      </c>
+      <c r="O12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P12">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q12">
+        <v>0.7272150534562222</v>
+      </c>
+      <c r="R12">
+        <v>6.544935481106</v>
+      </c>
+      <c r="S12">
+        <v>0.003580321274298905</v>
+      </c>
+      <c r="T12">
+        <v>0.004218198252086496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02513533333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.075406</v>
+      </c>
+      <c r="I13">
+        <v>0.008203110254409989</v>
+      </c>
+      <c r="J13">
+        <v>0.009664592277015929</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N13">
+        <v>111.627821</v>
+      </c>
+      <c r="O13">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P13">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q13">
+        <v>0.9352674967028889</v>
+      </c>
+      <c r="R13">
+        <v>8.417407470325999</v>
+      </c>
+      <c r="S13">
+        <v>0.004604632563216342</v>
+      </c>
+      <c r="T13">
+        <v>0.005425002825609045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.390072</v>
+      </c>
+      <c r="H14">
+        <v>2.780144</v>
+      </c>
+      <c r="I14">
+        <v>0.4536607383060315</v>
+      </c>
+      <c r="J14">
+        <v>0.35632387650044</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.146719</v>
+      </c>
+      <c r="N14">
+        <v>0.440157</v>
+      </c>
+      <c r="O14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="P14">
+        <v>0.002213357657235064</v>
+      </c>
+      <c r="Q14">
+        <v>0.203949973768</v>
+      </c>
+      <c r="R14">
+        <v>1.223699842608</v>
+      </c>
+      <c r="S14">
+        <v>0.001004113468916567</v>
+      </c>
+      <c r="T14">
+        <v>0.0007886721805079299</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.390072</v>
+      </c>
+      <c r="H15">
+        <v>2.780144</v>
+      </c>
+      <c r="I15">
+        <v>0.4536607383060315</v>
+      </c>
+      <c r="J15">
+        <v>0.35632387650044</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>28.93198366666667</v>
+      </c>
+      <c r="N15">
+        <v>86.795951</v>
+      </c>
+      <c r="O15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="P15">
+        <v>0.4364589970461662</v>
+      </c>
+      <c r="Q15">
+        <v>40.21754039949067</v>
+      </c>
+      <c r="R15">
+        <v>241.305242396944</v>
+      </c>
+      <c r="S15">
+        <v>0.1980043108402738</v>
+      </c>
+      <c r="T15">
+        <v>0.155520761760984</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.390072</v>
+      </c>
+      <c r="H16">
+        <v>2.780144</v>
+      </c>
+      <c r="I16">
+        <v>0.4536607383060315</v>
+      </c>
+      <c r="J16">
+        <v>0.35632387650044</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>37.20927366666667</v>
+      </c>
+      <c r="N16">
+        <v>111.627821</v>
+      </c>
+      <c r="O16">
+        <v>0.5613276452965987</v>
+      </c>
+      <c r="P16">
+        <v>0.5613276452965988</v>
+      </c>
+      <c r="Q16">
+        <v>51.72356946437067</v>
+      </c>
+      <c r="R16">
+        <v>310.341416786224</v>
+      </c>
+      <c r="S16">
+        <v>0.2546523139968411</v>
+      </c>
+      <c r="T16">
+        <v>0.200014442558948</v>
       </c>
     </row>
   </sheetData>
